--- a/RawData.xlsx
+++ b/RawData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="15975" windowHeight="5490" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15975" windowHeight="5490"/>
   </bookViews>
   <sheets>
     <sheet name="Piles" sheetId="1" r:id="rId1"/>
@@ -208,7 +208,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:plotArea>
@@ -5887,11 +5886,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="81663488"/>
-        <c:axId val="81674240"/>
+        <c:axId val="77955840"/>
+        <c:axId val="77958144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="81663488"/>
+        <c:axId val="77955840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="800"/>
@@ -5918,16 +5917,15 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81674240"/>
+        <c:crossAx val="77958144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="81674240"/>
+        <c:axId val="77958144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.5"/>
@@ -5950,11 +5948,10 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81663488"/>
+        <c:crossAx val="77955840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5965,9 +5962,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.71653834087065649"/>
-          <c:y val="0.151084910197744"/>
-          <c:w val="0.28346165912934351"/>
+          <c:x val="0.71653834087065638"/>
+          <c:y val="0.15108491019774403"/>
+          <c:w val="0.28346165912934357"/>
           <c:h val="0.45434993408769397"/>
         </c:manualLayout>
       </c:layout>
@@ -5991,7 +5988,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000004" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000004" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000411" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000411" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
@@ -6026,7 +6023,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.10452442982520001"/>
+          <c:x val="0.10452442982520004"/>
           <c:y val="0.21330577863813535"/>
           <c:w val="0.63440192896405501"/>
           <c:h val="0.65346064300102025"/>
@@ -10065,11 +10062,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="81722368"/>
-        <c:axId val="84223104"/>
+        <c:axId val="79403264"/>
+        <c:axId val="79417728"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="81722368"/>
+        <c:axId val="79403264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="800"/>
@@ -10095,12 +10092,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84223104"/>
+        <c:crossAx val="79417728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="84223104"/>
+        <c:axId val="79417728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.5"/>
@@ -10127,7 +10124,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81722368"/>
+        <c:crossAx val="79403264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10139,9 +10136,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.71535111276200225"/>
-          <c:y val="0.31708652886428312"/>
-          <c:w val="0.26986147572938995"/>
-          <c:h val="0.37882802569505586"/>
+          <c:y val="0.31708652886428323"/>
+          <c:w val="0.26986147572939001"/>
+          <c:h val="0.37882802569505597"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -10164,7 +10161,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000411" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000411" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000422" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000422" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10190,7 +10187,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:plotArea>
@@ -10202,7 +10198,7 @@
           <c:x val="0.10993336733382261"/>
           <c:y val="0.13401009084390791"/>
           <c:w val="0.5637380635477437"/>
-          <c:h val="0.82888875732638811"/>
+          <c:h val="0.82888875732638823"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -10479,11 +10475,11 @@
         </c:ser>
         <c:gapWidth val="50"/>
         <c:overlap val="-20"/>
-        <c:axId val="84276736"/>
-        <c:axId val="84278272"/>
+        <c:axId val="80794368"/>
+        <c:axId val="80795904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="84276736"/>
+        <c:axId val="80794368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10491,14 +10487,14 @@
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="84278272"/>
+        <c:crossAx val="80795904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84278272"/>
+        <c:axId val="80795904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10521,11 +10517,10 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84276736"/>
+        <c:crossAx val="80794368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10537,9 +10532,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.7016268297191397"/>
-          <c:y val="0.3006977193387454"/>
+          <c:y val="0.30069771933874545"/>
           <c:w val="0.2210867232804383"/>
-          <c:h val="0.45554807008286907"/>
+          <c:h val="0.45554807008286913"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
@@ -10547,7 +10542,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10589,8 +10584,8 @@
           <c:yMode val="edge"/>
           <c:x val="8.7260863225430224E-2"/>
           <c:y val="0.14073370508097954"/>
-          <c:w val="0.62584193642461583"/>
-          <c:h val="0.82125162469969615"/>
+          <c:w val="0.62584193642461605"/>
+          <c:h val="0.82125162469969626"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -10867,25 +10862,25 @@
         </c:ser>
         <c:gapWidth val="50"/>
         <c:overlap val="-20"/>
-        <c:axId val="84427520"/>
-        <c:axId val="84429056"/>
+        <c:axId val="84279296"/>
+        <c:axId val="84280832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="84427520"/>
+        <c:axId val="84279296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="84429056"/>
+        <c:crossAx val="84280832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84429056"/>
+        <c:axId val="84280832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10912,7 +10907,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84427520"/>
+        <c:crossAx val="84279296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10925,8 +10920,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.73347317002041412"/>
           <c:y val="0.28329640211078183"/>
-          <c:w val="0.22224534118062694"/>
-          <c:h val="0.49532250946107043"/>
+          <c:w val="0.22224534118062697"/>
+          <c:h val="0.49532250946107054"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
@@ -10934,7 +10929,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10975,8 +10970,8 @@
           <c:yMode val="edge"/>
           <c:x val="8.7260863225430224E-2"/>
           <c:y val="0.14073370508097954"/>
-          <c:w val="0.62584193642461627"/>
-          <c:h val="0.82125162469969648"/>
+          <c:w val="0.62584193642461661"/>
+          <c:h val="0.8212516246996967"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -11186,25 +11181,25 @@
         </c:ser>
         <c:gapWidth val="50"/>
         <c:overlap val="-20"/>
-        <c:axId val="85549056"/>
-        <c:axId val="85550592"/>
+        <c:axId val="84335232"/>
+        <c:axId val="84341120"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="85549056"/>
+        <c:axId val="84335232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="85550592"/>
+        <c:crossAx val="84341120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85550592"/>
+        <c:axId val="84341120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11231,7 +11226,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85549056"/>
+        <c:crossAx val="84335232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11244,8 +11239,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.73347317002041412"/>
           <c:y val="0.28329640211078183"/>
-          <c:w val="0.255197159093424"/>
-          <c:h val="0.61173741563761153"/>
+          <c:w val="0.25519715909342394"/>
+          <c:h val="0.61173741563761164"/>
         </c:manualLayout>
       </c:layout>
       <c:txPr>
@@ -11263,7 +11258,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -11290,7 +11285,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:plotArea>
@@ -11302,7 +11296,7 @@
           <c:x val="0.10993336733382261"/>
           <c:y val="0.13401009084390791"/>
           <c:w val="0.5637380635477437"/>
-          <c:h val="0.82888875732638834"/>
+          <c:h val="0.82888875732638845"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -11504,11 +11498,11 @@
         </c:ser>
         <c:gapWidth val="50"/>
         <c:overlap val="-20"/>
-        <c:axId val="85593472"/>
-        <c:axId val="85619840"/>
+        <c:axId val="85431424"/>
+        <c:axId val="85432960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="85593472"/>
+        <c:axId val="85431424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11516,14 +11510,14 @@
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="85619840"/>
+        <c:crossAx val="85432960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85619840"/>
+        <c:axId val="85432960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11546,11 +11540,10 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85593472"/>
+        <c:crossAx val="85431424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11562,9 +11555,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.7016268297191397"/>
-          <c:y val="0.30069771933874551"/>
+          <c:y val="0.30069771933874556"/>
           <c:w val="0.2731503630865339"/>
-          <c:h val="0.54057168899456165"/>
+          <c:h val="0.54057168899456154"/>
         </c:manualLayout>
       </c:layout>
       <c:txPr>
@@ -11582,7 +11575,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -13217,8 +13210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:KD109"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -33971,7 +33964,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="O56" sqref="O56"/>
     </sheetView>
   </sheetViews>
